--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/WEST_VIRGINIA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/WEST_VIRGINIA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C10">
@@ -522,7 +522,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C12">
@@ -579,7 +579,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C16">
@@ -662,7 +662,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -828,13 +828,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estado de México_x000D_
-</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C34">
@@ -847,7 +846,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C35">
@@ -899,7 +898,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C39">
@@ -938,7 +937,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C42">
@@ -1008,7 +1007,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C47">
@@ -1021,7 +1020,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C48">
@@ -1125,7 +1124,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C56">
@@ -1156,7 +1155,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C58">
@@ -1169,7 +1168,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C59">
@@ -1182,7 +1181,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C60">
@@ -1208,7 +1207,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C62">
@@ -1247,7 +1246,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C65">
@@ -1369,7 +1368,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C74">
@@ -1382,7 +1381,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C75">
@@ -1426,7 +1425,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C78">
@@ -1491,7 +1490,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C83">
@@ -1691,7 +1690,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C98">
@@ -1888,7 +1887,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C112">
@@ -1945,7 +1944,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C116">
@@ -1958,7 +1957,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C117">
@@ -1971,7 +1970,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C118">
@@ -2301,7 +2300,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C143">
@@ -2327,7 +2326,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C145">
@@ -2358,7 +2357,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C147">
@@ -2371,7 +2370,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C148">
@@ -2384,7 +2383,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C149">
@@ -2498,7 +2497,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C157">
@@ -2687,7 +2686,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C170">
@@ -2866,7 +2865,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C183">
@@ -2905,7 +2904,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C186">
@@ -3035,7 +3034,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C196">
@@ -3183,41 +3182,6 @@
       </c>
       <c r="D206">
         <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/WEST_VIRGINIA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/WEST_VIRGINIA_2015.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -546,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -559,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -800,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -813,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Jocotitlán</t>
@@ -870,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -883,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Polotitlán</t>
@@ -896,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -909,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -922,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -935,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -948,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1005,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -1018,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -1031,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Huanímaro</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>León</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -1135,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1166,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -1179,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1192,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -1205,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1244,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1288,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Calnali</t>
@@ -1301,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Eloxochitlán</t>
@@ -1314,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -1327,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1340,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -1353,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -1366,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Santiago De Anaya</t>
@@ -1379,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -1392,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -1405,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1436,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -1449,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1462,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1475,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -1488,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Ojuelos De Jalisco</t>
@@ -1501,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -1514,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -1527,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1540,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -1553,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1566,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1579,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1610,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -1623,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1636,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1649,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -1662,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Purépero</t>
@@ -1675,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -1688,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -1701,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1714,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1727,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1740,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1771,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -1784,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -1797,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Miacatlán</t>
@@ -1810,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1823,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1854,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Ruíz</t>
@@ -1867,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1898,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -1911,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Santiago</t>
@@ -1924,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1955,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1968,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -1981,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>San Andrés Paxtlán</t>
@@ -1994,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>San Andrés Yaá</t>
@@ -2007,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -2020,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>San Juan Cacahuatepec</t>
@@ -2033,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>San Juan Lalana</t>
@@ -2046,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>San Juan Teita</t>
@@ -2059,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>San Juan Teposcolula</t>
@@ -2072,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>San Mateo Peñasco</t>
@@ -2085,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>San Miguel Soyaltepec</t>
@@ -2098,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>San Sebastián Abasolo</t>
@@ -2111,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -2124,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Santa María Chilchotla</t>
@@ -2137,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Santa María Yolotepec</t>
@@ -2150,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -2163,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Santiago Matatlán</t>
@@ -2176,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Santiago Yosondúa</t>
@@ -2189,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2220,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -2233,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Chila</t>
@@ -2246,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Honey</t>
@@ -2259,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -2272,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -2285,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -2298,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -2311,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -2324,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -2337,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2368,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -2381,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -2394,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Tolimán</t>
@@ -2407,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2438,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2469,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Ciudad Fernández</t>
@@ -2482,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Matlapa</t>
@@ -2495,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>San Ciro De Acosta</t>
@@ -2508,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2539,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -2552,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -2565,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2596,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2627,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2658,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Mainero</t>
@@ -2671,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -2684,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Soto La Marina</t>
@@ -2697,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2728,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2759,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -2772,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -2785,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -2798,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -2811,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Comapa</t>
@@ -2824,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2837,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -2850,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -2863,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -2876,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -2889,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -2902,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -2915,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -2928,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -2941,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -2954,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -2967,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2980,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -2993,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Tlachichilco</t>
@@ -3006,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -3019,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -3032,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Zozocolco De Hidalgo</t>
@@ -3045,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3076,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Sucilá</t>
@@ -3089,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3120,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Miguel Auza</t>
@@ -3133,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -3146,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -3159,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Total</t>
